--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,42 +496,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36-39</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori5/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,42 +496,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36-39</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
